--- a/sandbox/uLab/Описание датчиков.xlsx
+++ b/sandbox/uLab/Описание датчиков.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc\sandbox\uLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EED9B70-D632-4146-B7CC-35FCCE95035D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EF81D1-DCFB-4F73-B5C7-F7D288322368}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -234,9 +234,6 @@
     <t>Сила нажатия движка, кг</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Нижний предел измерения сенсора</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Множитель для переводной формулы</t>
+  </si>
+  <si>
+    <t>Режим работы подпорного насоса</t>
   </si>
 </sst>
 </file>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,13 +594,13 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>

--- a/sandbox/uLab/Описание датчиков.xlsx
+++ b/sandbox/uLab/Описание датчиков.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc\sandbox\uLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EF81D1-DCFB-4F73-B5C7-F7D288322368}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6773760-DE25-4CE5-A694-DD8DB6D1546D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,13 +696,13 @@
         <v>41</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.1</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
